--- a/users.xlsx
+++ b/users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,21 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qrz136185</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysdba</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,12 +81,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,7 +166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +378,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -404,24 +399,15 @@
       <c r="A2" s="1">
         <v>13980315323</v>
       </c>
-      <c r="B2" s="1">
-        <v>19951219</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>13980312826</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13980317321</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
